--- a/Business/ProjectManagement/blancoProjectCalcFormulierV2.xlsx
+++ b/Business/ProjectManagement/blancoProjectCalcFormulierV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20003564\OneDrive - PXL\Documenten\04-2019-2020\03 - BFA1\Week 07-08 - KostenBaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800460\Desktop\School-Y2-\Business\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1E42502B-8293-4BEC-B1FF-DC2F0849EDC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{396620FA-C393-4E06-8B29-1C4D4C811929}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB81248-FBDA-44A8-AD8B-56A0A4481B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>PROJECTCALCULATIEFORMULIER</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Gecum. NCW</t>
+  </si>
+  <si>
+    <t>Personeel</t>
+  </si>
+  <si>
+    <t>terugverdientijd</t>
+  </si>
+  <si>
+    <t>netto contante waarde</t>
+  </si>
+  <si>
+    <t>IRR/IR</t>
   </si>
 </sst>
 </file>
@@ -144,7 +156,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,14 +167,77 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Procent" xfId="2" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -496,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -584,9 +659,7 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>0.08</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -594,23 +667,23 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B3:B8)</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -626,7 +699,9 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -634,322 +709,719 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B12:B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C12:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D12:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E12:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F12:F14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:E17" si="1">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f>E17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:F22" si="2">B18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <f>SUM(B18:B22)</f>
+        <f>SUM(B17:B22)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>SUM(C18:C22)</f>
+        <f t="shared" ref="C23:F23" si="3">SUM(C17:C22)</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUM(D18:D22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUM(E18:E22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUM(F18:F22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26"/>
+      <c r="C26" s="2">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:E26" si="4">C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27"/>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:F32" si="5">B27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29"/>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31"/>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32"/>
+      <c r="C32" s="2">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33"/>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:F35" si="6">B33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34"/>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35"/>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B26:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="7">SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <f>B15-B23</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f>C15-C23</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>D15-D23</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>E15-E23</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>F15-F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B38">
+        <f>B23-B36</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>C23-C36</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>D23-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>E23-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>F23-F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <f>SUM(B28:B29)</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <f>SUM(C28:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D28:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f>SUM(E28:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>SUM(F28:F29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <f>B25+B30</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f>C25+C30</f>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f>D25+D30</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>E25+E30</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>F25+F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f>-B9</f>
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <f>B31/(1+$A$8)^0</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>C31/(1+$A$8)^1</f>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f>D31/(1+$A$8)^2</f>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f>E31/(1+$A$8)^3</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>F31/(1+$A$8)^4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <f>A34+B34</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <f>B35+C34</f>
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f>C35+D34</f>
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f>D35+E34</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>E35+F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="2"/>
+      <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41">
+        <f>C41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F42" si="8">D41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42">
+        <f>C42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B41:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C41:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D41:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E41:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F41:F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f>B38+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>C38+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>D38+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>E38+E43</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>F38+F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f>-B14</f>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f>B44/(1+$A$13)^0</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>C44/(1+$A$13)^1</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D44/(1+$A$13)^2</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>E44/(1+$A$13)^3</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>F44/(1+$A$13)^4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <f>A47+B47</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <f>B48+C47</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>C48+D47</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <f>D48+E47</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f>E48+F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="e">
+        <f>B48/C47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" t="e">
+        <f>C50*365</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>F48</f>
+        <v>0</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7" t="e">
+        <f>IRR(A55:F55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f>A47</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:F55" si="9">C44</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -958,13 +1430,856 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:E17" si="1">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18"/>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:F22" si="2">B18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19"/>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20"/>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21"/>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B17:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="3">SUM(C17:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26"/>
+      <c r="C26" s="2">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:E26" si="4">C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27"/>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:F32" si="5">B27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29"/>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31"/>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32"/>
+      <c r="C32" s="2">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33"/>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:F35" si="6">B33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34"/>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35"/>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B26:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="7">SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f>B23-B36</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>C23-C36</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>D23-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>E23-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>F23-F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41">
+        <f>C41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F42" si="8">D41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42">
+        <f>C42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B41:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C41:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D41:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E41:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F41:F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f>B38+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>C38+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>D38+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>E38+E43</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>F38+F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f>-B14</f>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f>B44/(1+$A$13)^0</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>C44/(1+$A$13)^1</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D44/(1+$A$13)^2</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>E44/(1+$A$13)^3</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>F44/(1+$A$13)^4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <f>A47+B47</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <f>B48+C47</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>C48+D47</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <f>D48+E47</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f>E48+F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="e">
+        <f>B48/C47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" t="e">
+        <f>C50*365</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>F48</f>
+        <v>0</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7" t="e">
+        <f>IRR(A55:F55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f>A47</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:F55" si="9">C44</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -972,13 +2287,856 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:E17" si="1">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18"/>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:F22" si="2">B18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19"/>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20"/>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21"/>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B17:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="3">SUM(C17:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26"/>
+      <c r="C26" s="2">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:E26" si="4">C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27"/>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:F32" si="5">B27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29"/>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31"/>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32"/>
+      <c r="C32" s="2">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33"/>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:F35" si="6">B33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34"/>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35"/>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B26:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="7">SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f>B23-B36</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>C23-C36</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>D23-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>E23-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>F23-F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41">
+        <f>C41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F42" si="8">D41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42">
+        <f>C42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B41:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C41:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D41:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E41:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F41:F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f>B38+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>C38+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>D38+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>E38+E43</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>F38+F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f>-B14</f>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f>B44/(1+$A$13)^0</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>C44/(1+$A$13)^1</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D44/(1+$A$13)^2</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>E44/(1+$A$13)^3</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>F44/(1+$A$13)^4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <f>A47+B47</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <f>B48+C47</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>C48+D47</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <f>D48+E47</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f>E48+F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="e">
+        <f>B48/C47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" t="e">
+        <f>C50*365</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>F48</f>
+        <v>0</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7" t="e">
+        <f>IRR(A55:F55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f>A47</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:F55" si="9">C44</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
